--- a/doctors_schedule.xlsx
+++ b/doctors_schedule.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Катюшка\PycharmProjects\Laba2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B53E53-44F0-45E0-8DEB-59A46E71DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBA84C-11C6-40A0-A441-4DB6A49902C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Врачи и время записи" sheetId="1" r:id="rId1"/>
-    <sheet name="Клиенты" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Терапевт</t>
   </si>
@@ -47,18 +46,6 @@
   </si>
   <si>
     <t>Врачи</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Дата Рождения</t>
-  </si>
-  <si>
-    <t>Врач</t>
-  </si>
-  <si>
-    <t>Время</t>
   </si>
 </sst>
 </file>
@@ -115,13 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -510,39 +494,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2611D-F1E3-46F2-98A2-B79167C05FE9}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>